--- a/datos_prueba.xlsx
+++ b/datos_prueba.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luque\OneDrive\Documentos\LuquezK - 2025\Proyecto de Grado\Análisis de Resultados\Data Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brayan Cantillo\test_data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F33383-8EFC-48B2-8065-A000AF702C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA026A58-9442-455F-A97A-217FFE1C25D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{FD76CA29-042C-4370-BE1F-5205525CA94F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FD76CA29-042C-4370-BE1F-5205525CA94F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -229,7 +228,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -237,13 +236,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -289,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,7 +305,6 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,39 +342,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -428,7 +426,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -539,6 +537,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -547,13 +552,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -618,31 +616,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -652,25 +630,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AC6597-C06B-4D96-9BE2-25AA1D57BEC0}">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -714,7 +692,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -739,23 +717,23 @@
       <c r="H2" s="5">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>5</v>
       </c>
       <c r="J2" s="4">
         <v>5</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>1.2</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>1.2</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>4.2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -780,23 +758,23 @@
       <c r="H3" s="5">
         <v>0.42430555555555555</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>4.5</v>
       </c>
       <c r="J3" s="4">
         <v>4</v>
       </c>
-      <c r="K3" s="9">
-        <v>1</v>
-      </c>
-      <c r="L3" s="9">
-        <v>1</v>
-      </c>
-      <c r="M3" s="9">
+      <c r="K3" s="8">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -821,23 +799,23 @@
       <c r="H4" s="5">
         <v>0.42152777777777778</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>3</v>
       </c>
       <c r="J4" s="4">
         <v>6</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>1.05</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <v>1.05</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -862,23 +840,23 @@
       <c r="H5" s="5">
         <v>0.42083333333333334</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>3.2</v>
       </c>
       <c r="J5" s="4">
         <v>4</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>1.1299999999999999</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>4.3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -903,23 +881,23 @@
       <c r="H6" s="5">
         <v>0.42638888888888887</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>6</v>
       </c>
       <c r="J6" s="4">
         <v>3</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <v>1.2</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="8">
         <v>1.2</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -944,23 +922,23 @@
       <c r="H7" s="5">
         <v>0.4201388888888889</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>5</v>
       </c>
       <c r="J7" s="4">
         <v>5</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <v>1.4</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <v>1.4</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>4.12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -985,23 +963,23 @@
       <c r="H8" s="5">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>6</v>
       </c>
       <c r="J8" s="4">
         <v>4</v>
       </c>
-      <c r="K8" s="9">
-        <v>1</v>
-      </c>
-      <c r="L8" s="9">
-        <v>1</v>
-      </c>
-      <c r="M8" s="9">
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="8">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1026,23 +1004,23 @@
       <c r="H9" s="5">
         <v>0.4236111111111111</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>7.5</v>
       </c>
       <c r="J9" s="4">
         <v>4</v>
       </c>
-      <c r="K9" s="9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="9">
-        <v>1</v>
-      </c>
-      <c r="M9" s="9">
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
+      <c r="M9" s="8">
         <v>4.05</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1067,23 +1045,23 @@
       <c r="H10" s="5">
         <v>0.4236111111111111</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>3</v>
       </c>
       <c r="J10" s="4">
         <v>5</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>1.5</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <v>1.5</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <v>4.2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1108,23 +1086,23 @@
       <c r="H11" s="5">
         <v>0.4201388888888889</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>4.2</v>
       </c>
       <c r="J11" s="4">
         <v>6</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>1.2</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="8">
         <v>1.2</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <v>4.0599999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1149,23 +1127,23 @@
       <c r="H12" s="5">
         <v>0.42638888888888887</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>5</v>
       </c>
       <c r="J12" s="4">
         <v>6</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <v>1.3</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="8">
         <v>1.3</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1190,23 +1168,23 @@
       <c r="H13" s="5">
         <v>0.42430555555555555</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>6</v>
       </c>
       <c r="J13" s="4">
         <v>5</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="8">
         <v>1.2</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="8">
         <v>1.2</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="8">
         <v>4.3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1231,23 +1209,23 @@
       <c r="H14" s="5">
         <v>0.42638888888888887</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>2.5</v>
       </c>
       <c r="J14" s="4">
         <v>4</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="8">
         <v>4.25</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1272,23 +1250,23 @@
       <c r="H15" s="5">
         <v>0.4201388888888889</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>5</v>
       </c>
       <c r="J15" s="4">
         <v>5</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <v>1.05</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="8">
         <v>1.05</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <v>4.2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1313,23 +1291,23 @@
       <c r="H16" s="5">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>5.5</v>
       </c>
       <c r="J16" s="4">
         <v>6</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="8">
         <v>1.2</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="8">
         <v>1.2</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="8">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1354,23 +1332,23 @@
       <c r="H17" s="5">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>6</v>
       </c>
       <c r="J17" s="4">
         <v>4</v>
       </c>
-      <c r="K17" s="9">
-        <v>1</v>
-      </c>
-      <c r="L17" s="9">
-        <v>1</v>
-      </c>
-      <c r="M17" s="9">
+      <c r="K17" s="8">
+        <v>1</v>
+      </c>
+      <c r="L17" s="8">
+        <v>1</v>
+      </c>
+      <c r="M17" s="8">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1395,23 +1373,23 @@
       <c r="H18" s="5">
         <v>0.4201388888888889</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>7</v>
       </c>
       <c r="J18" s="4">
         <v>3</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <v>1.0449999999999999</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="8">
         <v>1.0449999999999999</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="8">
         <v>4.3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1436,23 +1414,23 @@
       <c r="H19" s="5">
         <v>0.42222222222222222</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>5</v>
       </c>
       <c r="J19" s="4">
         <v>4</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="8">
         <v>1.3</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="8">
         <v>1.3</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="8">
         <v>4.5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1477,23 +1455,23 @@
       <c r="H20" s="5">
         <v>0.42083333333333334</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>6.5</v>
       </c>
       <c r="J20" s="4">
         <v>5</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="8">
         <v>1.2</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="8">
         <v>1.2</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="8">
         <v>4.3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1518,23 +1496,23 @@
       <c r="H21" s="5">
         <v>0.42569444444444443</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>5</v>
       </c>
       <c r="J21" s="4">
         <v>5</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <v>1.2</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <v>1.2</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1559,23 +1537,23 @@
       <c r="H22" s="5">
         <v>0.43125000000000002</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <v>15</v>
       </c>
-      <c r="J22" s="7">
-        <v>3</v>
-      </c>
-      <c r="K22" s="9">
+      <c r="J22" s="6">
+        <v>3</v>
+      </c>
+      <c r="K22" s="8">
         <v>1.05</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="8">
         <v>1.05</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="8">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1600,23 +1578,23 @@
       <c r="H23" s="5">
         <v>0.43472222222222223</v>
       </c>
-      <c r="I23" s="7">
-        <v>16</v>
-      </c>
-      <c r="J23" s="7">
-        <v>3</v>
-      </c>
-      <c r="K23" s="9">
+      <c r="I23" s="6">
+        <v>16</v>
+      </c>
+      <c r="J23" s="6">
+        <v>3</v>
+      </c>
+      <c r="K23" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="8">
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1641,23 +1619,23 @@
       <c r="H24" s="5">
         <v>0.43541666666666667</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>14</v>
       </c>
-      <c r="J24" s="7">
-        <v>4</v>
-      </c>
-      <c r="K24" s="9">
+      <c r="J24" s="6">
+        <v>4</v>
+      </c>
+      <c r="K24" s="8">
         <v>1.2</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="8">
         <v>1.2</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="8">
         <v>4.05</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1682,23 +1660,23 @@
       <c r="H25" s="5">
         <v>0.43333333333333335</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <v>17</v>
       </c>
-      <c r="J25" s="7">
-        <v>3</v>
-      </c>
-      <c r="K25" s="9">
+      <c r="J25" s="6">
+        <v>3</v>
+      </c>
+      <c r="K25" s="8">
         <v>1.0249999999999999</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="8">
         <v>1.0249999999999999</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="8">
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1723,23 +1701,23 @@
       <c r="H26" s="5">
         <v>0.43611111111111112</v>
       </c>
-      <c r="I26" s="7">
-        <v>16</v>
-      </c>
-      <c r="J26" s="7">
-        <v>5</v>
-      </c>
-      <c r="K26" s="9">
+      <c r="I26" s="6">
+        <v>16</v>
+      </c>
+      <c r="J26" s="6">
+        <v>5</v>
+      </c>
+      <c r="K26" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="8">
         <v>4.2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1764,23 +1742,23 @@
       <c r="H27" s="5">
         <v>0.43472222222222223</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>15</v>
       </c>
-      <c r="J27" s="7">
-        <v>2</v>
-      </c>
-      <c r="K27" s="9">
+      <c r="J27" s="6">
+        <v>2</v>
+      </c>
+      <c r="K27" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M27" s="8">
         <v>4.3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1805,23 +1783,23 @@
       <c r="H28" s="5">
         <v>0.43333333333333335</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>20</v>
       </c>
-      <c r="J28" s="7">
-        <v>3</v>
-      </c>
-      <c r="K28" s="9">
+      <c r="J28" s="6">
+        <v>3</v>
+      </c>
+      <c r="K28" s="8">
         <v>1.2</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="8">
         <v>1.2</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="8">
         <v>4.0119999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1846,23 +1824,23 @@
       <c r="H29" s="5">
         <v>0.43611111111111112</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>13</v>
       </c>
-      <c r="J29" s="7">
-        <v>4</v>
-      </c>
-      <c r="K29" s="9">
+      <c r="J29" s="6">
+        <v>4</v>
+      </c>
+      <c r="K29" s="8">
         <v>1.4</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="8">
         <v>1.4</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="8">
         <v>4.0149999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1887,23 +1865,23 @@
       <c r="H30" s="5">
         <v>0.43402777777777779</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <v>12</v>
       </c>
-      <c r="J30" s="7">
-        <v>2</v>
-      </c>
-      <c r="K30" s="9">
+      <c r="J30" s="6">
+        <v>2</v>
+      </c>
+      <c r="K30" s="8">
         <v>1.03</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="8">
         <v>1.03</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="8">
         <v>4.2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1928,23 +1906,23 @@
       <c r="H31" s="5">
         <v>0.43541666666666667</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <v>12.5</v>
       </c>
-      <c r="J31" s="7">
-        <v>3</v>
-      </c>
-      <c r="K31" s="9">
+      <c r="J31" s="6">
+        <v>3</v>
+      </c>
+      <c r="K31" s="8">
         <v>1.25</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="8">
         <v>1.25</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M31" s="8">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1969,23 +1947,23 @@
       <c r="H32" s="5">
         <v>0.43680555555555556</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>15</v>
       </c>
-      <c r="J32" s="7">
-        <v>5</v>
-      </c>
-      <c r="K32" s="9">
+      <c r="J32" s="6">
+        <v>5</v>
+      </c>
+      <c r="K32" s="8">
         <v>1.3</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="8">
         <v>1.3</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="8">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2010,23 +1988,23 @@
       <c r="H33" s="5">
         <v>0.43333333333333335</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>17</v>
       </c>
-      <c r="J33" s="7">
-        <v>3</v>
-      </c>
-      <c r="K33" s="9">
+      <c r="J33" s="6">
+        <v>3</v>
+      </c>
+      <c r="K33" s="8">
         <v>1.2</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="8">
         <v>1.2</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M33" s="8">
         <v>4.25</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2051,23 +2029,23 @@
       <c r="H34" s="5">
         <v>0.43402777777777779</v>
       </c>
-      <c r="I34" s="7">
-        <v>16</v>
-      </c>
-      <c r="J34" s="7">
-        <v>3</v>
-      </c>
-      <c r="K34" s="9">
+      <c r="I34" s="6">
+        <v>16</v>
+      </c>
+      <c r="J34" s="6">
+        <v>3</v>
+      </c>
+      <c r="K34" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="8">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2092,23 +2070,23 @@
       <c r="H35" s="5">
         <v>0.43125000000000002</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>19</v>
       </c>
-      <c r="J35" s="7">
-        <v>3</v>
-      </c>
-      <c r="K35" s="9">
-        <v>1</v>
-      </c>
-      <c r="L35" s="9">
-        <v>1</v>
-      </c>
-      <c r="M35" s="9">
+      <c r="J35" s="6">
+        <v>3</v>
+      </c>
+      <c r="K35" s="8">
+        <v>1</v>
+      </c>
+      <c r="L35" s="8">
+        <v>1</v>
+      </c>
+      <c r="M35" s="8">
         <v>4.12</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -2133,23 +2111,23 @@
       <c r="H36" s="5">
         <v>0.43680555555555556</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <v>13</v>
       </c>
-      <c r="J36" s="7">
-        <v>4</v>
-      </c>
-      <c r="K36" s="9">
+      <c r="J36" s="6">
+        <v>4</v>
+      </c>
+      <c r="K36" s="8">
         <v>1.0449999999999999</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="8">
         <v>1.0449999999999999</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="8">
         <v>4.3</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2174,23 +2152,23 @@
       <c r="H37" s="5">
         <v>0.43263888888888891</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <v>14</v>
       </c>
-      <c r="J37" s="7">
-        <v>2</v>
-      </c>
-      <c r="K37" s="9">
+      <c r="J37" s="6">
+        <v>2</v>
+      </c>
+      <c r="K37" s="8">
         <v>1.3</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="8">
         <v>1.3</v>
       </c>
-      <c r="M37" s="9">
+      <c r="M37" s="8">
         <v>4.5</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2215,23 +2193,23 @@
       <c r="H38" s="5">
         <v>0.43125000000000002</v>
       </c>
-      <c r="I38" s="7">
-        <v>16</v>
-      </c>
-      <c r="J38" s="7">
-        <v>5</v>
-      </c>
-      <c r="K38" s="9">
+      <c r="I38" s="6">
+        <v>16</v>
+      </c>
+      <c r="J38" s="6">
+        <v>5</v>
+      </c>
+      <c r="K38" s="8">
         <v>1.2</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L38" s="8">
         <v>1.2</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M38" s="8">
         <v>4.2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2256,23 +2234,23 @@
       <c r="H39" s="5">
         <v>0.43541666666666667</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
         <v>12</v>
       </c>
-      <c r="J39" s="7">
-        <v>3</v>
-      </c>
-      <c r="K39" s="9">
+      <c r="J39" s="6">
+        <v>3</v>
+      </c>
+      <c r="K39" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L39" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M39" s="9">
+      <c r="M39" s="8">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -2297,23 +2275,23 @@
       <c r="H40" s="5">
         <v>0.43125000000000002</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
         <v>14</v>
       </c>
-      <c r="J40" s="7">
-        <v>4</v>
-      </c>
-      <c r="K40" s="9">
+      <c r="J40" s="6">
+        <v>4</v>
+      </c>
+      <c r="K40" s="8">
         <v>1.2</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="8">
         <v>1.2</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M40" s="8">
         <v>4.03</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -2338,28 +2316,32 @@
       <c r="H41" s="5">
         <v>0.43611111111111112</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="6">
         <v>15</v>
       </c>
-      <c r="J41" s="7">
-        <v>3</v>
-      </c>
-      <c r="K41" s="9">
+      <c r="J41" s="6">
+        <v>3</v>
+      </c>
+      <c r="K41" s="8">
         <v>1.4</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L41" s="8">
         <v>1.4</v>
       </c>
-      <c r="M41" s="9">
+      <c r="M41" s="8">
         <v>4.0599999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>1</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
+      <c r="B42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D42" s="4" t="s">
         <v>4</v>
       </c>
@@ -2369,20 +2351,38 @@
       <c r="F42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G42" s="5">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="I42" s="6">
+        <v>12</v>
+      </c>
+      <c r="J42" s="6">
+        <v>2</v>
+      </c>
+      <c r="K42" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="L42" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="M42" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>2</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
+      <c r="B43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D43" s="4" t="s">
         <v>4</v>
       </c>
@@ -2392,20 +2392,38 @@
       <c r="F43" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G43" s="5">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="I43" s="6">
+        <v>10</v>
+      </c>
+      <c r="J43" s="6">
+        <v>3</v>
+      </c>
+      <c r="K43" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="L43" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="M43" s="8">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>3</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
+      <c r="B44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D44" s="4" t="s">
         <v>4</v>
       </c>
@@ -2415,20 +2433,38 @@
       <c r="F44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G44" s="5">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="I44" s="6">
+        <v>9</v>
+      </c>
+      <c r="J44" s="6">
+        <v>2</v>
+      </c>
+      <c r="K44" s="6">
+        <v>1</v>
+      </c>
+      <c r="L44" s="8">
+        <v>1</v>
+      </c>
+      <c r="M44" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>4</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
+      <c r="B45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D45" s="4" t="s">
         <v>4</v>
       </c>
@@ -2438,20 +2474,38 @@
       <c r="F45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G45" s="5">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="I45" s="6">
+        <v>15</v>
+      </c>
+      <c r="J45" s="6">
+        <v>4</v>
+      </c>
+      <c r="K45" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="L45" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="M45" s="8">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>5</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
+      <c r="B46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D46" s="4" t="s">
         <v>4</v>
       </c>
@@ -2461,20 +2515,38 @@
       <c r="F46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G46" s="5">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="I46" s="6">
+        <v>16</v>
+      </c>
+      <c r="J46" s="6">
+        <v>2</v>
+      </c>
+      <c r="K46" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="L46" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="M46" s="8">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>6</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
+      <c r="B47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D47" s="4" t="s">
         <v>4</v>
       </c>
@@ -2484,20 +2556,38 @@
       <c r="F47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G47" s="5">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="I47" s="6">
+        <v>11</v>
+      </c>
+      <c r="J47" s="6">
+        <v>1</v>
+      </c>
+      <c r="K47" s="6">
+        <v>1</v>
+      </c>
+      <c r="L47" s="8">
+        <v>1</v>
+      </c>
+      <c r="M47" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>7</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
+      <c r="B48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D48" s="4" t="s">
         <v>4</v>
       </c>
@@ -2507,20 +2597,38 @@
       <c r="F48" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G48" s="5">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="I48" s="6">
+        <v>17</v>
+      </c>
+      <c r="J48" s="6">
+        <v>3</v>
+      </c>
+      <c r="K48" s="6">
+        <v>1.03</v>
+      </c>
+      <c r="L48" s="8">
+        <v>1.03</v>
+      </c>
+      <c r="M48" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>8</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+      <c r="B49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D49" s="4" t="s">
         <v>4</v>
       </c>
@@ -2530,20 +2638,38 @@
       <c r="F49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G49" s="5">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="I49" s="6">
+        <v>19</v>
+      </c>
+      <c r="J49" s="6">
+        <v>2</v>
+      </c>
+      <c r="K49" s="6">
+        <v>1.04</v>
+      </c>
+      <c r="L49" s="8">
+        <v>1.04</v>
+      </c>
+      <c r="M49" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>9</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
+      <c r="B50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D50" s="4" t="s">
         <v>4</v>
       </c>
@@ -2553,20 +2679,38 @@
       <c r="F50" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G50" s="5">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="I50" s="6">
+        <v>8</v>
+      </c>
+      <c r="J50" s="6">
+        <v>3</v>
+      </c>
+      <c r="K50" s="6">
+        <v>1</v>
+      </c>
+      <c r="L50" s="8">
+        <v>1</v>
+      </c>
+      <c r="M50" s="8">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>10</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
+      <c r="B51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D51" s="4" t="s">
         <v>4</v>
       </c>
@@ -2576,20 +2720,38 @@
       <c r="F51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G51" s="5">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="I51" s="6">
+        <v>10</v>
+      </c>
+      <c r="J51" s="6">
+        <v>1</v>
+      </c>
+      <c r="K51" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="L51" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="M51" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>11</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
+      <c r="B52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D52" s="4" t="s">
         <v>4</v>
       </c>
@@ -2599,20 +2761,38 @@
       <c r="F52" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G52" s="5">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="I52" s="6">
+        <v>11</v>
+      </c>
+      <c r="J52" s="6">
+        <v>2</v>
+      </c>
+      <c r="K52" s="6">
+        <v>1</v>
+      </c>
+      <c r="L52" s="8">
+        <v>1</v>
+      </c>
+      <c r="M52" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>12</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
+      <c r="B53" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D53" s="4" t="s">
         <v>4</v>
       </c>
@@ -2622,20 +2802,38 @@
       <c r="F53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G53" s="5">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="H53" s="5">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="I53" s="6">
+        <v>12</v>
+      </c>
+      <c r="J53" s="6">
+        <v>3</v>
+      </c>
+      <c r="K53" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="L53" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="M53" s="8">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>13</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
+      <c r="B54" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D54" s="4" t="s">
         <v>4</v>
       </c>
@@ -2645,20 +2843,38 @@
       <c r="F54" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G54" s="5">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="I54" s="6">
+        <v>13</v>
+      </c>
+      <c r="J54" s="6">
+        <v>1</v>
+      </c>
+      <c r="K54" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="L54" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="M54" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>14</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
+      <c r="B55" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D55" s="4" t="s">
         <v>4</v>
       </c>
@@ -2668,20 +2884,38 @@
       <c r="F55" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G55" s="5">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="I55" s="6">
+        <v>14</v>
+      </c>
+      <c r="J55" s="6">
+        <v>2</v>
+      </c>
+      <c r="K55" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="L55" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="M55" s="8">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>15</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
+      <c r="B56" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D56" s="4" t="s">
         <v>4</v>
       </c>
@@ -2691,20 +2925,38 @@
       <c r="F56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G56" s="5">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="I56" s="6">
+        <v>15</v>
+      </c>
+      <c r="J56" s="6">
+        <v>4</v>
+      </c>
+      <c r="K56" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="L56" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="M56" s="8">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>16</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
+      <c r="B57" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D57" s="4" t="s">
         <v>4</v>
       </c>
@@ -2714,20 +2966,38 @@
       <c r="F57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G57" s="5">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="H57" s="5">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="I57" s="6">
+        <v>11</v>
+      </c>
+      <c r="J57" s="6">
+        <v>3</v>
+      </c>
+      <c r="K57" s="6">
+        <v>1.01</v>
+      </c>
+      <c r="L57" s="8">
+        <v>1.01</v>
+      </c>
+      <c r="M57" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>17</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
+      <c r="B58" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D58" s="4" t="s">
         <v>4</v>
       </c>
@@ -2737,20 +3007,38 @@
       <c r="F58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G58" s="5">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="H58" s="5">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="I58" s="6">
+        <v>10</v>
+      </c>
+      <c r="J58" s="6">
+        <v>3</v>
+      </c>
+      <c r="K58" s="6">
+        <v>1</v>
+      </c>
+      <c r="L58" s="8">
+        <v>1</v>
+      </c>
+      <c r="M58" s="8">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>18</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
+      <c r="B59" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D59" s="4" t="s">
         <v>4</v>
       </c>
@@ -2760,20 +3048,38 @@
       <c r="F59" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G59" s="5">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="H59" s="5">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="I59" s="6">
+        <v>7</v>
+      </c>
+      <c r="J59" s="6">
+        <v>2</v>
+      </c>
+      <c r="K59" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="L59" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="M59" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>19</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
+      <c r="B60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D60" s="4" t="s">
         <v>4</v>
       </c>
@@ -2783,20 +3089,38 @@
       <c r="F60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G60" s="5">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="H60" s="5">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="I60" s="6">
+        <v>14</v>
+      </c>
+      <c r="J60" s="6">
+        <v>1</v>
+      </c>
+      <c r="K60" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="L60" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="M60" s="8">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>20</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
+      <c r="B61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D61" s="4" t="s">
         <v>5</v>
       </c>
@@ -2806,20 +3130,38 @@
       <c r="F61" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G61" s="5">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="H61" s="5">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="I61" s="6">
+        <v>14</v>
+      </c>
+      <c r="J61" s="6">
+        <v>4</v>
+      </c>
+      <c r="K61" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="L61" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="M61" s="8">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>21</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
+      <c r="B62" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D62" s="4" t="s">
         <v>5</v>
       </c>
@@ -2829,20 +3171,38 @@
       <c r="F62" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G62" s="5">
+        <v>0.43125000000000002</v>
+      </c>
+      <c r="H62" s="5">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="I62" s="6">
+        <v>10</v>
+      </c>
+      <c r="J62" s="6">
+        <v>2</v>
+      </c>
+      <c r="K62" s="6">
+        <v>1.06</v>
+      </c>
+      <c r="L62" s="8">
+        <v>1.06</v>
+      </c>
+      <c r="M62" s="8">
+        <v>4.0149999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>22</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
+      <c r="B63" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D63" s="4" t="s">
         <v>5</v>
       </c>
@@ -2852,20 +3212,38 @@
       <c r="F63" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G63" s="5">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="H63" s="5">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="I63" s="6">
+        <v>5</v>
+      </c>
+      <c r="J63" s="6">
+        <v>3</v>
+      </c>
+      <c r="K63" s="6">
+        <v>1</v>
+      </c>
+      <c r="L63" s="8">
+        <v>1</v>
+      </c>
+      <c r="M63" s="8">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>23</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
+      <c r="B64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D64" s="4" t="s">
         <v>5</v>
       </c>
@@ -2875,20 +3253,38 @@
       <c r="F64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G64" s="5">
+        <v>0.43541666666666667</v>
+      </c>
+      <c r="H64" s="5">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="I64" s="6">
+        <v>4</v>
+      </c>
+      <c r="J64" s="6">
+        <v>1</v>
+      </c>
+      <c r="K64" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="L64" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="M64" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>24</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
+      <c r="B65" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D65" s="4" t="s">
         <v>5</v>
       </c>
@@ -2898,20 +3294,38 @@
       <c r="F65" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G65" s="5">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="H65" s="5">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="I65" s="6">
+        <v>3</v>
+      </c>
+      <c r="J65" s="6">
+        <v>5</v>
+      </c>
+      <c r="K65" s="6">
+        <v>1</v>
+      </c>
+      <c r="L65" s="8">
+        <v>1</v>
+      </c>
+      <c r="M65" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>25</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
+      <c r="B66" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D66" s="4" t="s">
         <v>5</v>
       </c>
@@ -2921,20 +3335,38 @@
       <c r="F66" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G66" s="5">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="H66" s="5">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="I66" s="6">
+        <v>5</v>
+      </c>
+      <c r="J66" s="6">
+        <v>4</v>
+      </c>
+      <c r="K66" s="6">
+        <v>1.08</v>
+      </c>
+      <c r="L66" s="8">
+        <v>1.08</v>
+      </c>
+      <c r="M66" s="8">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>26</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
+      <c r="B67" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D67" s="4" t="s">
         <v>5</v>
       </c>
@@ -2944,20 +3376,38 @@
       <c r="F67" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G67" s="5">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="H67" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="I67" s="6">
+        <v>4</v>
+      </c>
+      <c r="J67" s="6">
+        <v>3</v>
+      </c>
+      <c r="K67" s="6">
+        <v>1</v>
+      </c>
+      <c r="L67" s="8">
+        <v>1</v>
+      </c>
+      <c r="M67" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>27</v>
       </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
+      <c r="B68" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D68" s="4" t="s">
         <v>5</v>
       </c>
@@ -2967,20 +3417,38 @@
       <c r="F68" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G68" s="5">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="H68" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="I68" s="6">
+        <v>6</v>
+      </c>
+      <c r="J68" s="6">
+        <v>2</v>
+      </c>
+      <c r="K68" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="L68" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="M68" s="8">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>28</v>
       </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
+      <c r="B69" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D69" s="4" t="s">
         <v>5</v>
       </c>
@@ -2990,20 +3458,38 @@
       <c r="F69" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G69" s="5">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="H69" s="5">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="I69" s="6">
+        <v>4</v>
+      </c>
+      <c r="J69" s="6">
+        <v>1</v>
+      </c>
+      <c r="K69" s="6">
+        <v>1</v>
+      </c>
+      <c r="L69" s="8">
+        <v>1</v>
+      </c>
+      <c r="M69" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>29</v>
       </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
+      <c r="B70" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D70" s="4" t="s">
         <v>5</v>
       </c>
@@ -3013,20 +3499,38 @@
       <c r="F70" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G70" s="5">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="H70" s="5">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="I70" s="6">
+        <v>7</v>
+      </c>
+      <c r="J70" s="6">
+        <v>2</v>
+      </c>
+      <c r="K70" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="L70" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="M70" s="8">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>30</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
+      <c r="B71" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D71" s="4" t="s">
         <v>5</v>
       </c>
@@ -3036,20 +3540,38 @@
       <c r="F71" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G71" s="5">
+        <v>0.43541666666666667</v>
+      </c>
+      <c r="H71" s="5">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="I71" s="6">
+        <v>8</v>
+      </c>
+      <c r="J71" s="6">
+        <v>4</v>
+      </c>
+      <c r="K71" s="6">
+        <v>1</v>
+      </c>
+      <c r="L71" s="8">
+        <v>1</v>
+      </c>
+      <c r="M71" s="8">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>31</v>
       </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
+      <c r="B72" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D72" s="4" t="s">
         <v>5</v>
       </c>
@@ -3059,20 +3581,38 @@
       <c r="F72" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G72" s="5">
+        <v>0.43680555555555556</v>
+      </c>
+      <c r="H72" s="5">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="I72" s="6">
+        <v>4</v>
+      </c>
+      <c r="J72" s="6">
+        <v>4</v>
+      </c>
+      <c r="K72" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="L72" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="M72" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>32</v>
       </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
+      <c r="B73" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D73" s="4" t="s">
         <v>5</v>
       </c>
@@ -3082,20 +3622,38 @@
       <c r="F73" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G73" s="5">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="H73" s="5">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="I73" s="6">
+        <v>5</v>
+      </c>
+      <c r="J73" s="6">
+        <v>5</v>
+      </c>
+      <c r="K73" s="6">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="L73" s="8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M73" s="8">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>33</v>
       </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
+      <c r="B74" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D74" s="4" t="s">
         <v>5</v>
       </c>
@@ -3105,20 +3663,38 @@
       <c r="F74" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G74" s="5">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="H74" s="5">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="I74" s="6">
+        <v>7</v>
+      </c>
+      <c r="J74" s="6">
+        <v>2</v>
+      </c>
+      <c r="K74" s="6">
+        <v>1.02</v>
+      </c>
+      <c r="L74" s="8">
+        <v>1.02</v>
+      </c>
+      <c r="M74" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>34</v>
       </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
+      <c r="B75" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D75" s="4" t="s">
         <v>5</v>
       </c>
@@ -3128,20 +3704,38 @@
       <c r="F75" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G75" s="5">
+        <v>0.43125000000000002</v>
+      </c>
+      <c r="H75" s="5">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="I75" s="6">
+        <v>8</v>
+      </c>
+      <c r="J75" s="6">
+        <v>1</v>
+      </c>
+      <c r="K75" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="L75" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="M75" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>35</v>
       </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
+      <c r="B76" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D76" s="4" t="s">
         <v>5</v>
       </c>
@@ -3151,20 +3745,38 @@
       <c r="F76" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G76" s="5">
+        <v>0.43680555555555556</v>
+      </c>
+      <c r="H76" s="5">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="I76" s="6">
+        <v>4</v>
+      </c>
+      <c r="J76" s="6">
+        <v>2</v>
+      </c>
+      <c r="K76" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="L76" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="M76" s="8">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>36</v>
       </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
+      <c r="B77" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D77" s="4" t="s">
         <v>5</v>
       </c>
@@ -3174,20 +3786,38 @@
       <c r="F77" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G77" s="5">
+        <v>0.43263888888888891</v>
+      </c>
+      <c r="H77" s="5">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="I77" s="6">
+        <v>5</v>
+      </c>
+      <c r="J77" s="6">
+        <v>4</v>
+      </c>
+      <c r="K77" s="6">
+        <v>1</v>
+      </c>
+      <c r="L77" s="8">
+        <v>1</v>
+      </c>
+      <c r="M77" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>37</v>
       </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
+      <c r="B78" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D78" s="4" t="s">
         <v>5</v>
       </c>
@@ -3197,20 +3827,38 @@
       <c r="F78" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G78" s="5">
+        <v>0.43125000000000002</v>
+      </c>
+      <c r="H78" s="5">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="I78" s="6">
+        <v>3</v>
+      </c>
+      <c r="J78" s="6">
+        <v>3</v>
+      </c>
+      <c r="K78" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="L78" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="M78" s="8">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>38</v>
       </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
+      <c r="B79" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D79" s="4" t="s">
         <v>5</v>
       </c>
@@ -3220,20 +3868,38 @@
       <c r="F79" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G79" s="5">
+        <v>0.43541666666666667</v>
+      </c>
+      <c r="H79" s="5">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="I79" s="6">
+        <v>7</v>
+      </c>
+      <c r="J79" s="6">
+        <v>1</v>
+      </c>
+      <c r="K79" s="6">
+        <v>1</v>
+      </c>
+      <c r="L79" s="8">
+        <v>1</v>
+      </c>
+      <c r="M79" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>39</v>
       </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
+      <c r="B80" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D80" s="4" t="s">
         <v>5</v>
       </c>
@@ -3243,20 +3909,38 @@
       <c r="F80" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G80" s="5">
+        <v>0.43125000000000002</v>
+      </c>
+      <c r="H80" s="5">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="I80" s="6">
+        <v>4</v>
+      </c>
+      <c r="J80" s="6">
+        <v>2</v>
+      </c>
+      <c r="K80" s="6">
+        <v>1.07</v>
+      </c>
+      <c r="L80" s="8">
+        <v>1.07</v>
+      </c>
+      <c r="M80" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>40</v>
       </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
+      <c r="B81" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D81" s="4" t="s">
         <v>5</v>
       </c>
@@ -3266,20 +3950,38 @@
       <c r="F81" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G81" s="5">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="H81" s="5">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="I81" s="6">
+        <v>5</v>
+      </c>
+      <c r="J81" s="6">
+        <v>1</v>
+      </c>
+      <c r="K81" s="6">
+        <v>1</v>
+      </c>
+      <c r="L81" s="8">
+        <v>1</v>
+      </c>
+      <c r="M81" s="8">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>1</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
+      <c r="B82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D82" s="4" t="s">
         <v>6</v>
       </c>
@@ -3289,20 +3991,38 @@
       <c r="F82" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G82" s="5">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="H82" s="5">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="I82" s="6">
+        <v>5</v>
+      </c>
+      <c r="J82" s="6">
+        <v>3</v>
+      </c>
+      <c r="K82" s="6">
+        <v>1.08</v>
+      </c>
+      <c r="L82" s="6">
+        <v>1.08</v>
+      </c>
+      <c r="M82" s="8">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>2</v>
       </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
+      <c r="B83" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D83" s="4" t="s">
         <v>6</v>
       </c>
@@ -3312,20 +4032,38 @@
       <c r="F83" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G83" s="5">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="H83" s="5">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="I83" s="6">
+        <v>4</v>
+      </c>
+      <c r="J83" s="6">
+        <v>2</v>
+      </c>
+      <c r="K83" s="6">
+        <v>1</v>
+      </c>
+      <c r="L83" s="6">
+        <v>1</v>
+      </c>
+      <c r="M83" s="8">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>3</v>
       </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
+      <c r="B84" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D84" s="4" t="s">
         <v>6</v>
       </c>
@@ -3335,20 +4073,38 @@
       <c r="F84" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G84" s="5">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="H84" s="5">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="I84" s="6">
+        <v>3</v>
+      </c>
+      <c r="J84" s="6">
+        <v>3</v>
+      </c>
+      <c r="K84" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="L84" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="M84" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>4</v>
       </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
+      <c r="B85" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D85" s="4" t="s">
         <v>6</v>
       </c>
@@ -3358,20 +4114,38 @@
       <c r="F85" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G85" s="5">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="H85" s="5">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="I85" s="6">
+        <v>4</v>
+      </c>
+      <c r="J85" s="6">
+        <v>2</v>
+      </c>
+      <c r="K85" s="6">
+        <v>1</v>
+      </c>
+      <c r="L85" s="6">
+        <v>1</v>
+      </c>
+      <c r="M85" s="8">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>5</v>
       </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
+      <c r="B86" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D86" s="4" t="s">
         <v>6</v>
       </c>
@@ -3381,20 +4155,38 @@
       <c r="F86" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G86" s="5">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="H86" s="5">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="I86" s="6">
+        <v>3</v>
+      </c>
+      <c r="J86" s="6">
+        <v>1</v>
+      </c>
+      <c r="K86" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="L86" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="M86" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>6</v>
       </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
+      <c r="B87" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D87" s="4" t="s">
         <v>6</v>
       </c>
@@ -3404,20 +4196,38 @@
       <c r="F87" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G87" s="5">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="H87" s="5">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="I87" s="6">
+        <v>2</v>
+      </c>
+      <c r="J87" s="6">
+        <v>3</v>
+      </c>
+      <c r="K87" s="6">
+        <v>1</v>
+      </c>
+      <c r="L87" s="6">
+        <v>1</v>
+      </c>
+      <c r="M87" s="8">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>7</v>
       </c>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
+      <c r="B88" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D88" s="4" t="s">
         <v>6</v>
       </c>
@@ -3427,20 +4237,38 @@
       <c r="F88" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G88" s="5">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="H88" s="5">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="I88" s="6">
+        <v>3</v>
+      </c>
+      <c r="J88" s="6">
+        <v>2</v>
+      </c>
+      <c r="K88" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="L88" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="M88" s="8">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>8</v>
       </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
+      <c r="B89" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D89" s="4" t="s">
         <v>6</v>
       </c>
@@ -3450,20 +4278,38 @@
       <c r="F89" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G89" s="5">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="H89" s="5">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="I89" s="6">
+        <v>3</v>
+      </c>
+      <c r="J89" s="6">
+        <v>3</v>
+      </c>
+      <c r="K89" s="6">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="L89" s="6">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M89" s="8">
+        <v>4.0149999999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>9</v>
       </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
+      <c r="B90" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D90" s="4" t="s">
         <v>6</v>
       </c>
@@ -3473,20 +4319,38 @@
       <c r="F90" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G90" s="5">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="H90" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="I90" s="6">
+        <v>2</v>
+      </c>
+      <c r="J90" s="6">
+        <v>1</v>
+      </c>
+      <c r="K90" s="6">
+        <v>1.02</v>
+      </c>
+      <c r="L90" s="6">
+        <v>1.02</v>
+      </c>
+      <c r="M90" s="8">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>10</v>
       </c>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
+      <c r="B91" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D91" s="4" t="s">
         <v>6</v>
       </c>
@@ -3496,20 +4360,38 @@
       <c r="F91" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G91" s="5">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="H91" s="5">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="I91" s="6">
+        <v>4</v>
+      </c>
+      <c r="J91" s="6">
+        <v>2</v>
+      </c>
+      <c r="K91" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="L91" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="M91" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>11</v>
       </c>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
+      <c r="B92" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D92" s="4" t="s">
         <v>6</v>
       </c>
@@ -3519,20 +4401,38 @@
       <c r="F92" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G92" s="5">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="H92" s="5">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="I92" s="6">
+        <v>7</v>
+      </c>
+      <c r="J92" s="6">
+        <v>3</v>
+      </c>
+      <c r="K92" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="L92" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="M92" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>12</v>
       </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
+      <c r="B93" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D93" s="4" t="s">
         <v>6</v>
       </c>
@@ -3542,20 +4442,38 @@
       <c r="F93" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G93" s="5">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="H93" s="5">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="I93" s="6">
+        <v>8</v>
+      </c>
+      <c r="J93" s="6">
+        <v>4</v>
+      </c>
+      <c r="K93" s="6">
+        <v>1</v>
+      </c>
+      <c r="L93" s="6">
+        <v>1</v>
+      </c>
+      <c r="M93" s="8">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>13</v>
       </c>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
+      <c r="B94" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D94" s="4" t="s">
         <v>6</v>
       </c>
@@ -3565,20 +4483,38 @@
       <c r="F94" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="6"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G94" s="5">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="H94" s="5">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="I94" s="6">
+        <v>10</v>
+      </c>
+      <c r="J94" s="6">
+        <v>3</v>
+      </c>
+      <c r="K94" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="L94" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="M94" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>14</v>
       </c>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
+      <c r="B95" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D95" s="4" t="s">
         <v>6</v>
       </c>
@@ -3588,20 +4524,38 @@
       <c r="F95" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G95" s="5">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="H95" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="I95" s="6">
+        <v>9</v>
+      </c>
+      <c r="J95" s="6">
+        <v>2</v>
+      </c>
+      <c r="K95" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="L95" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="M95" s="8">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>15</v>
       </c>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
+      <c r="B96" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D96" s="4" t="s">
         <v>6</v>
       </c>
@@ -3611,20 +4565,38 @@
       <c r="F96" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G96" s="5">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="H96" s="5">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="I96" s="6">
+        <v>7</v>
+      </c>
+      <c r="J96" s="6">
+        <v>3</v>
+      </c>
+      <c r="K96" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="L96" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="M96" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>16</v>
       </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
+      <c r="B97" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D97" s="4" t="s">
         <v>6</v>
       </c>
@@ -3634,20 +4606,38 @@
       <c r="F97" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G97" s="5">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="H97" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="I97" s="6">
+        <v>13</v>
+      </c>
+      <c r="J97" s="6">
+        <v>4</v>
+      </c>
+      <c r="K97" s="6">
+        <v>1.01</v>
+      </c>
+      <c r="L97" s="6">
+        <v>1.01</v>
+      </c>
+      <c r="M97" s="8">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>17</v>
       </c>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
+      <c r="B98" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D98" s="4" t="s">
         <v>6</v>
       </c>
@@ -3657,20 +4647,38 @@
       <c r="F98" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G98" s="5">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="H98" s="5">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="I98" s="6">
+        <v>11</v>
+      </c>
+      <c r="J98" s="6">
+        <v>3</v>
+      </c>
+      <c r="K98" s="6">
+        <v>1</v>
+      </c>
+      <c r="L98" s="6">
+        <v>1</v>
+      </c>
+      <c r="M98" s="8">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>18</v>
       </c>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
+      <c r="B99" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D99" s="4" t="s">
         <v>6</v>
       </c>
@@ -3680,20 +4688,38 @@
       <c r="F99" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
-      <c r="M99" s="6"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G99" s="5">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="H99" s="5">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="I99" s="6">
+        <v>10</v>
+      </c>
+      <c r="J99" s="6">
+        <v>1</v>
+      </c>
+      <c r="K99" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="L99" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="M99" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>19</v>
       </c>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
+      <c r="B100" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D100" s="4" t="s">
         <v>6</v>
       </c>
@@ -3703,20 +4729,38 @@
       <c r="F100" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
-      <c r="M100" s="6"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G100" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="H100" s="5">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="I100" s="6">
+        <v>9</v>
+      </c>
+      <c r="J100" s="6">
+        <v>3</v>
+      </c>
+      <c r="K100" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="L100" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="M100" s="8">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>20</v>
       </c>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
+      <c r="B101" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D101" s="4" t="s">
         <v>6</v>
       </c>
@@ -3726,16 +4770,30 @@
       <c r="F101" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-      <c r="M101" s="6"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I102" s="8"/>
+      <c r="G101" s="5">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="H101" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="I101" s="6">
+        <v>10</v>
+      </c>
+      <c r="J101" s="6">
+        <v>2</v>
+      </c>
+      <c r="K101" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="L101" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="M101" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I102" s="7"/>
       <c r="J102" s="1"/>
     </row>
   </sheetData>
